--- a/output/KAPITALO_31247845000100.xlsx
+++ b/output/KAPITALO_31247845000100.xlsx
@@ -658,10 +658,10 @@
         <v>44165</v>
       </c>
       <c r="B25">
-        <v>0.05395949999999994</v>
+        <v>0.04999660000000006</v>
       </c>
       <c r="C25">
-        <v>0.03810974423597946</v>
+        <v>0.03420643950232249</v>
       </c>
     </row>
   </sheetData>

--- a/output/KAPITALO_31247845000100.xlsx
+++ b/output/KAPITALO_31247845000100.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>KAPITALO CGI ZETA FUNDO DE INVESTIMENTO EM COTAS DE FUNDOS DE INVESTIMENTO MULTIMERCADO</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,282 +383,210 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>43465</v>
       </c>
       <c r="B2">
-        <v>-3.280000000005501e-05</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>43496</v>
       </c>
       <c r="B3">
-        <v>0.04135920000000004</v>
-      </c>
-      <c r="C3">
         <v>0.04139335770213282</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>43524</v>
       </c>
       <c r="B4">
-        <v>0.04923100000000002</v>
-      </c>
-      <c r="C4">
         <v>0.007559159221909306</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>43555</v>
       </c>
       <c r="B5">
-        <v>0.04710349999999996</v>
-      </c>
-      <c r="C5">
         <v>-0.002027675507109583</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>43585</v>
       </c>
       <c r="B6">
-        <v>0.04505859999999995</v>
-      </c>
-      <c r="C6">
         <v>-0.0019529110541604</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>43616</v>
       </c>
       <c r="B7">
-        <v>0.03768869999999991</v>
-      </c>
-      <c r="C7">
         <v>-0.0070521404254269</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>43646</v>
       </c>
       <c r="B8">
-        <v>0.08157520000000007</v>
-      </c>
-      <c r="C8">
         <v>0.04229254881545907</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>43677</v>
       </c>
       <c r="B9">
-        <v>0.0728622000000001</v>
-      </c>
-      <c r="C9">
         <v>-0.008055842996400053</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>43708</v>
       </c>
       <c r="B10">
-        <v>0.0746697999999999</v>
-      </c>
-      <c r="C10">
         <v>0.001684838928988075</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>43738</v>
       </c>
       <c r="B11">
-        <v>0.0875416</v>
-      </c>
-      <c r="C11">
         <v>0.01197744646774312</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>43769</v>
       </c>
       <c r="B12">
-        <v>0.1197722000000001</v>
-      </c>
-      <c r="C12">
         <v>0.02963619966353481</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>43799</v>
       </c>
       <c r="B13">
-        <v>0.1181384999999999</v>
-      </c>
-      <c r="C13">
         <v>-0.001458957455811261</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>43830</v>
       </c>
       <c r="B14">
-        <v>0.1535757</v>
-      </c>
-      <c r="C14">
         <v>0.03169303266098078</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>43861</v>
       </c>
       <c r="B15">
-        <v>0.1293529</v>
-      </c>
-      <c r="C15">
         <v>-0.02099801512809263</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>43890</v>
       </c>
       <c r="B16">
-        <v>0.09584700000000002</v>
-      </c>
-      <c r="C16">
         <v>-0.02966822859356011</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>43921</v>
       </c>
       <c r="B17">
-        <v>-0.02275519999999998</v>
-      </c>
-      <c r="C17">
         <v>-0.1082287947131305</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>43951</v>
       </c>
       <c r="B18">
-        <v>-0.002746400000000038</v>
-      </c>
-      <c r="C18">
         <v>0.02047470603066892</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>43982</v>
       </c>
       <c r="B19">
-        <v>0.02173350000000007</v>
-      </c>
-      <c r="C19">
         <v>0.02454731675072419</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>44012</v>
       </c>
       <c r="B20">
-        <v>0.018899</v>
-      </c>
-      <c r="C20">
         <v>-0.002774206777011901</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>44043</v>
       </c>
       <c r="B21">
-        <v>0.04827690000000007</v>
-      </c>
-      <c r="C21">
         <v>0.02883298540875989</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>44074</v>
       </c>
       <c r="B22">
-        <v>0.05737100000000006</v>
-      </c>
-      <c r="C22">
         <v>0.008675284173485176</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>44104</v>
       </c>
       <c r="B23">
-        <v>0.02361279999999999</v>
-      </c>
-      <c r="C23">
         <v>-0.03192654233944381</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>44135</v>
       </c>
       <c r="B24">
-        <v>0.0152679</v>
-      </c>
-      <c r="C24">
         <v>-0.00815239903213405</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>44165</v>
       </c>
       <c r="B25">
-        <v>0.04999660000000006</v>
-      </c>
-      <c r="C25">
-        <v>0.03420643950232249</v>
+        <v>0.02405709862391991</v>
       </c>
     </row>
   </sheetData>
